--- a/service-order-processor/src/test/data/service-order/error/201704131155_DataFormatOnly_Batch1_002.xlsx
+++ b/service-order-processor/src/test/data/service-order/error/201704131155_DataFormatOnly_Batch1_002.xlsx
@@ -12,44 +12,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
-  <si>
-    <t>ActionCode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="125">
+  <si>
+    <t>Actioncode</t>
   </si>
   <si>
     <t>ItemType</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Customer	Customer</t>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>NodeName</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>ServiceCode</t>
   </si>
   <si>
     <t>BillingReference</t>
   </si>
   <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Actioncode</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>NodeName</t>
-  </si>
-  <si>
-    <t>OrderNumber</t>
-  </si>
-  <si>
-    <t>ServiceCode</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -131,42 +119,129 @@
     <t>ChargeID</t>
   </si>
   <si>
-    <t>Rejection Reason</t>
+    <t>BillingKey</t>
+  </si>
+  <si>
+    <t>Abermed Ltd</t>
+  </si>
+  <si>
+    <t>ABERGREA</t>
+  </si>
+  <si>
+    <t>PSTN</t>
+  </si>
+  <si>
+    <t>01493660700</t>
+  </si>
+  <si>
+    <t>DIPMigration</t>
+  </si>
+  <si>
+    <t>(All Carriers)^ThusCPS|</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>BC-ABCS-123</t>
+  </si>
+  <si>
+    <t>LN3 4NT</t>
+  </si>
+  <si>
+    <t>ETHC5496874</t>
+  </si>
+  <si>
+    <t>ETHA1234566</t>
+  </si>
+  <si>
+    <t>Fail - No Action Code</t>
   </si>
   <si>
     <t>INPN</t>
   </si>
   <si>
-    <t>BillingKey</t>
-  </si>
-  <si>
-    <t>Abermed Ltd</t>
-  </si>
-  <si>
-    <t>ABERGREA</t>
-  </si>
-  <si>
-    <t>PSTN</t>
-  </si>
-  <si>
-    <t>DIPMigration</t>
-  </si>
-  <si>
-    <t>(All Carriers)^ThusCPS|</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
+    <t>01493660701</t>
+  </si>
+  <si>
+    <t>BC-ABCS-124</t>
+  </si>
+  <si>
+    <t>ETHC5496875</t>
+  </si>
+  <si>
+    <t>ETHA1234567</t>
+  </si>
+  <si>
+    <t>Fail - No Itemtype</t>
+  </si>
+  <si>
+    <t>01493660702</t>
+  </si>
+  <si>
+    <t>BC-ABCS-125</t>
+  </si>
+  <si>
+    <t>ETHC5496876</t>
+  </si>
+  <si>
+    <t>ETHA1234568</t>
+  </si>
+  <si>
+    <t>Fail - No Customer Name</t>
+  </si>
+  <si>
+    <t>01493660703</t>
+  </si>
+  <si>
+    <t>BC-ABCS-126</t>
+  </si>
+  <si>
+    <t>ETHC5496877</t>
+  </si>
+  <si>
+    <t>ETHA1234569</t>
+  </si>
+  <si>
+    <t>Fail - No Account Number</t>
+  </si>
+  <si>
+    <t>01493660704</t>
+  </si>
+  <si>
+    <t>BC-ABCS-127</t>
+  </si>
+  <si>
+    <t>ETHC5496878</t>
+  </si>
+  <si>
+    <t>ETHA1234570</t>
+  </si>
+  <si>
+    <t>Fail - No Node Name</t>
+  </si>
+  <si>
+    <t>01493660705</t>
+  </si>
+  <si>
+    <t>BC-ABCS-128</t>
+  </si>
+  <si>
+    <t>ETHC5496879</t>
+  </si>
+  <si>
+    <t>ETHA1234571</t>
+  </si>
+  <si>
+    <t>Fail - No Service Code</t>
   </si>
   <si>
     <t>BC-ABCS-129</t>
   </si>
   <si>
-    <t>LN3 4NT</t>
-  </si>
-  <si>
     <t>ETHC5496880</t>
   </si>
   <si>
@@ -176,6 +251,48 @@
     <t xml:space="preserve">Fail - No Billing Reference </t>
   </si>
   <si>
+    <t>01493660706</t>
+  </si>
+  <si>
+    <t>BC-ABCS-130</t>
+  </si>
+  <si>
+    <t>ETHC5496881</t>
+  </si>
+  <si>
+    <t>ETHA1234573</t>
+  </si>
+  <si>
+    <t>Fail - No Billing Reference Description</t>
+  </si>
+  <si>
+    <t>01493660708</t>
+  </si>
+  <si>
+    <t>BC-ABCS-132</t>
+  </si>
+  <si>
+    <t>ETHC5496883</t>
+  </si>
+  <si>
+    <t>ETHA1234575</t>
+  </si>
+  <si>
+    <t>Fail - No  Customer Service Start Date</t>
+  </si>
+  <si>
+    <t>01493660709</t>
+  </si>
+  <si>
+    <t>BC-ABCS-133</t>
+  </si>
+  <si>
+    <t>ETHC5496884</t>
+  </si>
+  <si>
+    <t>ETHA1234576</t>
+  </si>
+  <si>
     <t>01493660711</t>
   </si>
   <si>
@@ -207,6 +324,69 @@
   </si>
   <si>
     <t>ETHA1234579</t>
+  </si>
+  <si>
+    <t>01493660720</t>
+  </si>
+  <si>
+    <t>BC-ABCS-139</t>
+  </si>
+  <si>
+    <t>ETHC5496891</t>
+  </si>
+  <si>
+    <t>ETHA1234583</t>
+  </si>
+  <si>
+    <t>Record Already exists with this BIlling Reference</t>
+  </si>
+  <si>
+    <t>ABERCLEV</t>
+  </si>
+  <si>
+    <t>01493660721</t>
+  </si>
+  <si>
+    <t>02/01/2000</t>
+  </si>
+  <si>
+    <t>28/01/2000</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>GL-123456</t>
+  </si>
+  <si>
+    <t>GA1 2HG</t>
+  </si>
+  <si>
+    <t>5-5-8135486943</t>
+  </si>
+  <si>
+    <t>ABC1234556</t>
+  </si>
+  <si>
+    <t>ABERWEST</t>
+  </si>
+  <si>
+    <t>03/01/2000</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>DR-123456</t>
+  </si>
+  <si>
+    <t>DR1 4RC</t>
+  </si>
+  <si>
+    <t>5-5-8135486944</t>
+  </si>
+  <si>
+    <t>ABC1234557</t>
   </si>
 </sst>
 </file>
@@ -274,297 +454,265 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
         <v>5</v>
       </c>
       <c r="AC1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AD1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AE1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="AF1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AG1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AH1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="AI1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="AK1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AL1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M2"/>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="U2"/>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>37</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
       <c r="AK2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AN2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U3"/>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Y3"/>
       <c r="Z3"/>
@@ -579,82 +727,81 @@
       <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>59</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="U4"/>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Y4"/>
       <c r="Z4"/>
@@ -669,19 +816,1145 @@
       <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
         <v>61</v>
       </c>
-      <c r="AL4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>59</v>
-      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO5"/>
     </row>
-    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
+        <v>91</v>
+      </c>
+      <c r="X11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" t="s">
+        <v>96</v>
+      </c>
+      <c r="X12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>102</v>
+      </c>
+      <c r="X13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s">
+        <v>113</v>
+      </c>
+      <c r="S15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15"/>
+      <c r="V15" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" t="s">
+        <v>121</v>
+      </c>
+      <c r="U16"/>
+      <c r="V16" t="s">
+        <v>122</v>
+      </c>
+      <c r="W16" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO16"/>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
